--- a/Question_Set2/Role-specific skills/Software Engineer.xlsx
+++ b/Question_Set2/Role-specific skills/Software Engineer.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The following elements are added to a queue (in order): 30, 70, 30, 80, 50. What would the queue contain after three delete operations?', 'ques_type': 2, 'options': ['80, 50', '30, 70', 'NULL', '30, 70, 30'], 'score': '80, 50'}, {'title': 'For which of the following elements can a binary search tree not be constructed?', 'ques_type': 2, 'options': ['10, 20, 30, 12, 34, 23', '1.55, 2.33, 4.55, 9.12, 3.11, 2.15', '“Kanesha”, “Dinesh”, “Raul”, “Mark”, “Mimi”', '32, +, 35, /, 4, - 44'], 'score': '32, +, 35, /, 4, - 44'}, {'title': 'An algorithm needs n input parameters, 1 output parameter, 22 local variables, and an auxiliary array of n elements. Which of the following should be considered for evaluating its space complexity?', 'ques_type': 2, 'options': ['Input parameters', 'Output parameters', 'Local variables', 'Array of n elements'], 'score': 'Array of n elements'}, {'title': 'Which of the statements is correct about the following code snippet? Employee e = new Employee ( "Samuel", 24, "Oakland Street, New Jersey" ) ', 'ques_type': 2, 'options': ['An object of Employee class is created on heap.', 'A copy constructor function of Employee class is called.', 'An object of Employee class is created in stack.', 'Variable e would contain the name, age, and address of the employee.'], 'score': 'An object of Employee class is created on heap.'}]</t>
+    <t>questions = [
+    {
+        "title": "The following elements are added to a queue (in order): 30, 70, 30, 80, 50. What would the queue contain after three delete operations?",
+        "ques_type": 2,
+        "options": [
+            "80, 50",
+            "30, 70",
+            "NULL",
+            "30, 70, 30"
+        ],
+        "score": "80, 50"
+    },
+    {
+        "title": "For which of the following elements can a binary search tree not be constructed?",
+        "ques_type": 2,
+        "options": [
+            "10, 20, 30, 12, 34, 23",
+            "1.55, 2.33, 4.55, 9.12, 3.11, 2.15",
+            "\u201cKanesha\u201d, \u201cDinesh\u201d, \u201cRaul\u201d, \u201cMark\u201d, \u201cMimi\u201d",
+            "32, +, 35, /, 4, - 44"
+        ],
+        "score": "32, +, 35, /, 4, - 44"
+    },
+    {
+        "title": "An algorithm needs n input parameters, 1 output parameter, 22 local variables, and an auxiliary array of n elements. Which of the following should be considered for evaluating its space complexity?",
+        "ques_type": 2,
+        "options": [
+            "Input parameters",
+            "Output parameters",
+            "Local variables",
+            "Array of n elements"
+        ],
+        "score": "Array of n elements"
+    },
+    {
+        "title": "Which of the statements is correct about the following code snippet? Employee e = new Employee ( \"Samuel\", 24, \"Oakland Street, New Jersey\" )",
+        "ques_type": 2,
+        "options": [
+            "An object of Employee class is created on heap.",
+            "A copy constructor function of Employee class is called.",
+            "An object of Employee class is created in stack.",
+            "Variable e would contain the name, age, and address of the employee."
+        ],
+        "score": "An object of Employee class is created on heap."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
